--- a/data/exo1/part1.xlsx
+++ b/data/exo1/part1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibaud\Documents\Demographie\M1S2\UE1 - Analyse demographique\Breton\M1demo-AD-devoir2\data\exo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FFCEF7-70E2-416A-B911-B48EFDD6CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502917B6-F160-4D05-BA87-5FDF8B75D45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
